--- a/biology/Botanique/Haricot_caracolle/Haricot_caracolle.xlsx
+++ b/biology/Botanique/Haricot_caracolle/Haricot_caracolle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vigna caracalla
 Le haricot caracolle (Vigna caracalla) est une plante grimpante de la famille des Fabaceae, originaire des régions tropicales d'Amérique centrale et d'Amérique du Sud. Le nom spécifique caracalla est une corruption du mot portugais ou espagnol "caracol" (escargot), car les fleurs sont spiralées comme des coquilles d'escargot.
@@ -512,7 +524,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Phaseolus caracalla L.</t>
         </is>
